--- a/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Steven Smith (c).xlsx
+++ b/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Steven Smith (c).xlsx
@@ -439,48 +439,48 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 22 2020</v>
+        <v xml:space="preserve"> Oct 17 2020</v>
       </c>
       <c r="B2" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
+        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="F2" t="str">
         <v>Steven Smith (c)</v>
       </c>
       <c r="G2" t="str">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H2" t="str">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I2" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
-        <v>126.66</v>
+        <v>158.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 17 2020</v>
+        <v xml:space="preserve"> Oct 3 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
+        <v>RCB won by 8 wickets (with 5 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Rajasthan Royals</v>
@@ -492,19 +492,19 @@
         <v>Steven Smith (c)</v>
       </c>
       <c r="G3" t="str">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="H3" t="str">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="I3" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>158.33</v>
+        <v>100.00</v>
       </c>
     </row>
     <row r="4">
@@ -544,37 +544,37 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 3 2020</v>
+        <v xml:space="preserve"> Oct 22 2020</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C5" t="str">
-        <v>RCB won by 8 wickets (with 5 balls remaining)</v>
+        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
       </c>
       <c r="D5" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E5" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F5" t="str">
         <v>Steven Smith (c)</v>
       </c>
       <c r="G5" t="str">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H5" t="str">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I5" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="str">
         <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>100.00</v>
+        <v>126.66</v>
       </c>
     </row>
   </sheetData>
